--- a/v2.0/A2DVI.v2.0_CPL.xlsx
+++ b/v2.0/A2DVI.v2.0_CPL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ralle\Documents\A2DVI.v2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F6BE3A-8B6D-4621-99BF-9D3E80100CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E9FD84-5B53-4010-B123-5AD76F66148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -540,7 +540,7 @@
         <v>94.8095</v>
       </c>
       <c r="C2" s="4">
-        <v>-119.36605</v>
+        <v>-120.38205000000001</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>

--- a/v2.0/A2DVI.v2.0_CPL.xlsx
+++ b/v2.0/A2DVI.v2.0_CPL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ralle\Documents\A2DVI.v2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E9FD84-5B53-4010-B123-5AD76F66148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AC0034-1ECD-4BD1-B392-EE1BAD5A1B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:L31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -749,7 +749,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="4">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
